--- a/REGULAR/HRMO/DIMARANAN, RODORA GARCIA.xlsx
+++ b/REGULAR/HRMO/DIMARANAN, RODORA GARCIA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="466">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1428,6 +1428,9 @@
   </si>
   <si>
     <t>9/1,15/2023</t>
+  </si>
+  <si>
+    <t>12/20,26/2023</t>
   </si>
 </sst>
 </file>
@@ -2161,7 +2164,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K736" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K737" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2490,12 +2493,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K736"/>
+  <dimension ref="A2:K737"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A587" activePane="bottomLeft"/>
-      <selection activeCell="E3" sqref="E3"/>
-      <selection pane="bottomLeft" activeCell="I603" sqref="I603"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="3525" topLeftCell="A588" activePane="bottomLeft"/>
+      <selection activeCell="C9" activeCellId="1" sqref="C9 C9:I9"/>
+      <selection pane="bottomLeft" activeCell="K606" sqref="K606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,7 +2661,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>159.97930000000002</v>
+        <v>162.47930000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2668,7 +2671,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.065</v>
+        <v>191.565</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3422,7 +3425,7 @@
       <c r="D44" s="39"/>
       <c r="E44" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>159.97930000000002</v>
+        <v>162.47930000000002</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="13" t="str">
@@ -3434,7 +3437,7 @@
       </c>
       <c r="I44" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.065</v>
+        <v>191.565</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="51" t="s">
@@ -3522,7 +3525,7 @@
       <c r="D48" s="39"/>
       <c r="E48" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>159.97930000000002</v>
+        <v>162.47930000000002</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="13" t="str">
@@ -3534,7 +3537,7 @@
       </c>
       <c r="I48" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.065</v>
+        <v>191.565</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="51" t="s">
@@ -3686,7 +3689,7 @@
       <c r="D55" s="39"/>
       <c r="E55" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>159.97930000000002</v>
+        <v>162.47930000000002</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="13" t="str">
@@ -3698,7 +3701,7 @@
       </c>
       <c r="I55" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.065</v>
+        <v>191.565</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="51" t="s">
@@ -3742,7 +3745,7 @@
       </c>
       <c r="E57" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>159.97930000000002</v>
+        <v>162.47930000000002</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="13" t="str">
@@ -3752,7 +3755,7 @@
       <c r="H57" s="39"/>
       <c r="I57" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.065</v>
+        <v>191.565</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="51" t="s">
@@ -4214,7 +4217,7 @@
       <c r="D77" s="39"/>
       <c r="E77" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>159.97930000000002</v>
+        <v>162.47930000000002</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="13" t="str">
@@ -4226,7 +4229,7 @@
       </c>
       <c r="I77" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.065</v>
+        <v>191.565</v>
       </c>
       <c r="J77" s="11"/>
       <c r="K77" s="51" t="s">
@@ -4268,7 +4271,7 @@
       </c>
       <c r="E79" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>159.97930000000002</v>
+        <v>162.47930000000002</v>
       </c>
       <c r="F79" s="20"/>
       <c r="G79" s="13" t="str">
@@ -4278,7 +4281,7 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.065</v>
+        <v>191.565</v>
       </c>
       <c r="J79" s="11"/>
       <c r="K79" s="51" t="s">
@@ -4320,7 +4323,7 @@
       <c r="D81" s="39"/>
       <c r="E81" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>159.97930000000002</v>
+        <v>162.47930000000002</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
@@ -4332,7 +4335,7 @@
       </c>
       <c r="I81" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.065</v>
+        <v>191.565</v>
       </c>
       <c r="J81" s="11"/>
       <c r="K81" s="51" t="s">
@@ -4374,7 +4377,7 @@
       <c r="D83" s="39"/>
       <c r="E83" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>159.97930000000002</v>
+        <v>162.47930000000002</v>
       </c>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
@@ -4384,7 +4387,7 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.065</v>
+        <v>191.565</v>
       </c>
       <c r="J83" s="11"/>
       <c r="K83" s="51" t="s">
@@ -4428,7 +4431,7 @@
       </c>
       <c r="E85" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>159.97930000000002</v>
+        <v>162.47930000000002</v>
       </c>
       <c r="F85" s="20"/>
       <c r="G85" s="13" t="str">
@@ -4438,7 +4441,7 @@
       <c r="H85" s="39"/>
       <c r="I85" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.065</v>
+        <v>191.565</v>
       </c>
       <c r="J85" s="11"/>
       <c r="K85" s="51"/>
@@ -4592,7 +4595,7 @@
       </c>
       <c r="E92" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>159.97930000000002</v>
+        <v>162.47930000000002</v>
       </c>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
@@ -4602,7 +4605,7 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.065</v>
+        <v>191.565</v>
       </c>
       <c r="J92" s="11"/>
       <c r="K92" s="51" t="s">
@@ -4618,7 +4621,7 @@
       <c r="D93" s="39"/>
       <c r="E93" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>159.97930000000002</v>
+        <v>162.47930000000002</v>
       </c>
       <c r="F93" s="20"/>
       <c r="G93" s="13" t="str">
@@ -4630,7 +4633,7 @@
       </c>
       <c r="I93" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.065</v>
+        <v>191.565</v>
       </c>
       <c r="J93" s="11"/>
       <c r="K93" s="51" t="s">
@@ -5328,7 +5331,7 @@
       </c>
       <c r="E124" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>159.97930000000002</v>
+        <v>162.47930000000002</v>
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="13" t="str">
@@ -5338,7 +5341,7 @@
       <c r="H124" s="39"/>
       <c r="I124" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.065</v>
+        <v>191.565</v>
       </c>
       <c r="J124" s="11"/>
       <c r="K124" s="51"/>
@@ -16035,13 +16038,15 @@
       <c r="B603" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C603" s="13"/>
+      <c r="C603" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D603" s="39"/>
       <c r="E603" s="9"/>
       <c r="F603" s="20"/>
-      <c r="G603" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G603" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H603" s="39">
         <v>2</v>
@@ -16059,15 +16064,17 @@
       <c r="B604" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C604" s="13"/>
+      <c r="C604" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D604" s="39">
         <v>3</v>
       </c>
       <c r="E604" s="9"/>
       <c r="F604" s="20"/>
-      <c r="G604" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G604" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H604" s="39"/>
       <c r="I604" s="9"/>
@@ -16077,10 +16084,10 @@
       </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A605" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B605" s="20"/>
+      <c r="A605" s="40"/>
+      <c r="B605" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="C605" s="13"/>
       <c r="D605" s="39"/>
       <c r="E605" s="9"/>
@@ -16089,16 +16096,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H605" s="39"/>
+      <c r="H605" s="39">
+        <v>1</v>
+      </c>
       <c r="I605" s="9"/>
       <c r="J605" s="11"/>
-      <c r="K605" s="20"/>
+      <c r="K605" s="57">
+        <v>45218</v>
+      </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B606" s="20"/>
+        <v>45231</v>
+      </c>
+      <c r="B606" s="20" t="s">
+        <v>265</v>
+      </c>
       <c r="C606" s="13"/>
       <c r="D606" s="39"/>
       <c r="E606" s="9"/>
@@ -16110,11 +16123,13 @@
       <c r="H606" s="39"/>
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
-      <c r="K606" s="20"/>
+      <c r="K606" s="20" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -16132,7 +16147,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -16150,7 +16165,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -16168,7 +16183,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -16186,7 +16201,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -16204,7 +16219,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -16222,7 +16237,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -16240,7 +16255,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -16258,7 +16273,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -16276,7 +16291,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -16294,7 +16309,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -16312,7 +16327,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -16330,7 +16345,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -16348,7 +16363,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -16366,7 +16381,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -16384,7 +16399,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -16402,7 +16417,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -16420,7 +16435,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -16438,7 +16453,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -16456,7 +16471,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -16474,7 +16489,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -16492,7 +16507,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -16510,7 +16525,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -16528,7 +16543,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -16546,7 +16561,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -16564,7 +16579,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -16582,7 +16597,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -16600,7 +16615,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -16618,7 +16633,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -16636,7 +16651,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -16654,7 +16669,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -16672,7 +16687,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -16690,7 +16705,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -16708,7 +16723,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -16726,7 +16741,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -16744,7 +16759,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -16762,7 +16777,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -16780,7 +16795,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -16798,7 +16813,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -16816,7 +16831,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -16834,7 +16849,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -16852,7 +16867,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -16870,7 +16885,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -16888,7 +16903,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -16906,7 +16921,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -16924,7 +16939,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -16942,7 +16957,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -16960,7 +16975,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -16978,7 +16993,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -16996,7 +17011,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -17014,7 +17029,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -17032,7 +17047,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -17050,7 +17065,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -17068,7 +17083,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -17086,7 +17101,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -17104,7 +17119,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -17122,7 +17137,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17140,7 +17155,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17158,7 +17173,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17176,7 +17191,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17194,7 +17209,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17212,7 +17227,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17230,7 +17245,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17247,7 +17262,9 @@
       <c r="K669" s="20"/>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A670" s="40"/>
+      <c r="A670" s="40">
+        <v>47178</v>
+      </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
       <c r="D670" s="39"/>
@@ -18303,20 +18320,36 @@
       <c r="K735" s="20"/>
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A736" s="41"/>
-      <c r="B736" s="15"/>
-      <c r="C736" s="42"/>
-      <c r="D736" s="43"/>
+      <c r="A736" s="40"/>
+      <c r="B736" s="20"/>
+      <c r="C736" s="13"/>
+      <c r="D736" s="39"/>
       <c r="E736" s="9"/>
-      <c r="F736" s="15"/>
-      <c r="G736" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H736" s="43"/>
+      <c r="F736" s="20"/>
+      <c r="G736" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H736" s="39"/>
       <c r="I736" s="9"/>
-      <c r="J736" s="12"/>
-      <c r="K736" s="15"/>
+      <c r="J736" s="11"/>
+      <c r="K736" s="20"/>
+    </row>
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A737" s="41"/>
+      <c r="B737" s="15"/>
+      <c r="C737" s="42"/>
+      <c r="D737" s="43"/>
+      <c r="E737" s="9"/>
+      <c r="F737" s="15"/>
+      <c r="G737" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H737" s="43"/>
+      <c r="I737" s="9"/>
+      <c r="J737" s="12"/>
+      <c r="K737" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18493,7 +18526,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>350.04430000000002</v>
+        <v>354.04430000000002</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
